--- a/클래스_맵핑문서_20181020.xlsx
+++ b/클래스_맵핑문서_20181020.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="클래스" sheetId="1" r:id="rId1"/>
+    <sheet name="메소드" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>클래스이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +59,58 @@
   </si>
   <si>
     <t>유닛의 모든 기능을 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAlive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanPurchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 가능한가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살아있는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFrontUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동할 곳에 적 유닛이 있는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 오버 시 유닛 이동 관련 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,4 +492,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/클래스_맵핑문서_20181020.xlsx
+++ b/클래스_맵핑문서_20181020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="클래스" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>클래스이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,19 @@
   </si>
   <si>
     <t>턴 오버 시 유닛 이동 관련 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputStateMachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletteMakerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 버튼을 누르는 로직에 대한 설정
+여기로부터 전체 Controller가 타고 들어간다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,8 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -436,24 +455,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -461,7 +480,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -469,10 +488,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -480,11 +499,22 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
